--- a/Analyses/main study - LLM/output/rescue robots AND socially assistive robots.xlsx
+++ b/Analyses/main study - LLM/output/rescue robots AND socially assistive robots.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rigid robots can operate continuously without breaks, making them available 24/7.</t>
+          <t>Rigid robots can operate continuously without breaks, making them available 24/7 for rescue operations.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>autonomous possibilities</t>
+          <t>environment-independent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rigid robots can perform tasks independently, allowing for autonomous search and rescue operations.</t>
+          <t>Rigid robots can operate in various environments, including air, water, and ground, and can withstand adverse conditions.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>environment-independent</t>
+          <t>special abilities</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rigid robots can operate in various environments, including air, water, and ground, and can withstand adverse conditions.</t>
+          <t>Rigid robots can perform special tasks, such as flying, hacking doors, and sending images to control centers, making them more effective in certain rescue scenarios.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>special abilities</t>
+          <t>multifunctional</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rigid robots can possess special skills, such as flying, hacking, or sending images, making them more effective in certain tasks.</t>
+          <t>Rigid robots can take on various tasks and are versatile in their use, making them valuable assets in rescue operations.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rigid robots can learn and adapt quickly, allowing them to improve their performance over time.</t>
+          <t>Rigid robots can learn and adapt quickly, allowing them to improve their performance and respond to new situations more effectively.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>deliver supplies</t>
+          <t>delivery of vital supplies</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>tailored therapy</t>
+          <t>accessibility</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Soft robots can provide personalized therapy and care to victims, improving their chances of survival.</t>
+          <t>Soft robots can reach areas that are inaccessible to humans, making them ideal for search and rescue operations in complex environments.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>accessible</t>
+          <t>versatility</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Soft robots can reach inaccessible areas and provide care and supplies to victims in need.</t>
+          <t>Soft robots can be used in different settings and can adapt to various situations, making them valuable assets in disaster response.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>easy to use</t>
+          <t>care for victims</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Soft robots are designed to be user-friendly, making it easier for humans to operate them in emergency situations.</t>
+          <t>Soft robots can provide vital care to victims, such as food and water, during the rescue operation, increasing their chances of survival.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>versatility</t>
+          <t>easy to use</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Soft robots can be used in various settings and can adapt to different situations, making them a valuable asset in search and rescue operations.</t>
+          <t>Soft robots are often easy to use and require minimal training, making them accessible to a wide range of users.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rigid robots are prone to technical problems, errors, and breakdowns, limiting their ability to respond effectively in emergency situations.</t>
+          <t>Rigid robots are prone to technical problems, errors, and breakdowns, which can hinder their ability to provide effective rescue assistance.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lack of flexibility</t>
+          <t>limited learning ability</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rigid robots are specialized for specific tasks and lack the flexibility to adapt to changing situations or unexpected events.</t>
+          <t>Rigid robots have limited learning abilities and may not be able to adapt to new situations or recognize patterns as well as humans.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>limited learning ability</t>
+          <t>lack of emotions/feelings</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rigid robots have limited learning abilities and may not be able to recognize patterns or respond to new situations.</t>
+          <t>Rigid robots lack emotions and feelings, which can make it difficult for them to understand and respond to human emotions in emergency situations.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>no emotions/feelings</t>
+          <t>complex operation</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rigid robots lack emotions and feelings, which can limit their ability to understand and respond to human needs in emergency situations.</t>
+          <t>Rigid robots can be difficult to configure and operate, requiring specialized expertise and potentially leading to errors.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>complex operation</t>
+          <t>limited flexibility</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rigid robots can be difficult to configure and operate, requiring specialized expertise and potentially leading to errors.</t>
+          <t>Rigid robots are often limited to specific tasks and may not be able to adapt to changing situations or provide the same level of flexibility as humans.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Soft robots are susceptible to material degradation, damage, and destruction, which can limit their effectiveness in emergency situations.</t>
+          <t>Soft robots are susceptible to material degradation and damage, which can affect their performance and longevity.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Soft robots are more prone to damage and destruction due to their flexible and soft materials.</t>
+          <t>Soft robots are more prone to damage and destruction, especially in dangerous or harsh environments.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Soft robots may have limited durability and require frequent maintenance or replacement, which can impact their ability to respond effectively in emergency situations.</t>
+          <t>Soft robots may have limited durability and require more frequent maintenance or replacement, which can be a challenge in emergency situations.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lower inhibition threshold</t>
+          <t>robustness</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Soft robots may have a lower inhibition threshold, making them more susceptible to damage or destruction in certain situations.</t>
+          <t>Soft robots may not be as robust as rigid robots and can be more susceptible to damage or breakage.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>robustness</t>
+          <t>limited load-bearing capacity</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Soft robots may lack robustness, making them more prone to damage or destruction, but also potentially more flexible and adaptable.</t>
+          <t>Soft robots may have limited load-bearing capacity, which can affect their ability to perform certain tasks or respond to emergency situations.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Rigid robots can prevent people from having to work under difficult or dangerous conditions, increasing safety.</t>
+          <t>Rigid robots can prevent people from having to work under difficult or dangerous conditions, increasing safety and reducing risks to human rescuers.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Rigid robots can improve the speed and efficiency of rescue operations, allowing for faster intervention and more lives saved.</t>
+          <t>Rigid robots can work faster and more efficiently than humans, improving the speed and effectiveness of rescue operations.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Rigid robots can accomplish their tasks reliably and reproducibly, reducing the risk of human error.</t>
+          <t>Rigid robots can be precisely controlled and accomplish their tasks reliably and reproducibly, reducing the risk of human error.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rigid robots can perform tasks that require great strength, such as lifting debris, and can operate in environments that would be toxic to humans.</t>
+          <t>Rigid robots can perform tasks that require greater strength than humans, such as lifting debris or moving heavy objects.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rigid robots can access areas that are difficult or impossible for humans to reach, such as areas contaminated with radiation.</t>
+          <t>Rigid robots can access areas that are difficult or dangerous for humans to reach, such as contaminated or toxic environments.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Soft robots pose a lower risk of injury to victims due to their adaptability and softness.</t>
+          <t>Soft robots pose a lower risk of injury to humans due to their soft and flexible materials.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Soft robots can access narrow spaces and adapt to different situations, making them more versatile than rigid robots.</t>
+          <t>Soft robots can adapt to different situations and environments, making them more versatile and effective in certain rescue scenarios.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>reduced risk of injury</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Soft robots are always ready and can perform tasks reliably, reducing the risk of human error.</t>
+          <t>Soft robots can reduce the risk of injury to both humans and animals, making them a safer option in certain situations.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>care of victims</t>
+          <t>accessibility</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Soft robots can provide direct help to victims, such as delivering food and water, and can care for them in a more gentle and precise way.</t>
+          <t>Soft robots can access tight spaces and areas that are difficult or impossible for humans to reach.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adaptability</t>
+          <t>care and supply</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Soft robots can adapt to different situations and environments, making them more suitable for certain types of rescue operations.</t>
+          <t>Soft robots can provide care and supply to victims in a more gentle and safe manner, such as delivering food and water.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>unreliability</t>
+          <t>malfunctions</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rigid robots may malfunction or make brutal mistakes, leading to harm or failure in rescue operations.</t>
+          <t>Technical defects or errors can cause harm to humans, such as gripping arms strangling victims or clearance drills causing harm.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>The consequences of a data leak or technical defect in rigid robots are unknown and potentially catastrophic.</t>
+          <t>There are unknown consequences of data leaks and technical errors, which can be catastrophic in rescue situations.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>malfunctions</t>
+          <t>no moral considerations</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rigid robots may grip too tight, strangle, or murder victims due to technical errors or defects.</t>
+          <t>Autonomous rescue robots lack moral considerations, such as prioritizing people to be rescued, which can lead to unintended consequences.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>data security</t>
+          <t>vulnerable to hackers</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Rigid robots may be vulnerable to cyber attacks, data leaks, or hacking, compromising rescue operations.</t>
+          <t>Rigid robots can be hacked, leading to loss of control and potential harm to humans.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>control over robot actions</t>
+          <t>endangerment of human lives</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>It is uncertain how rigid robots will react and whether control over them can be maintained in complex situations.</t>
+          <t>Malfunctioning robots can seriously endanger human lives, and software problems can never be ruled out in security-relevant environments.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Soft robots may be less precise or accurate in their movements or actions, potentially leading to errors.</t>
+          <t>Soft robots may be less precise in their actions, which can lead to accidents or injuries.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Soft robots may still cause injury to people, especially if they are faulty or malfunctioning.</t>
+          <t>Soft robots can still cause injury, especially if they are faulty or malfunctioning.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>damage to soft robots</t>
+          <t>easier to damage</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Soft robots are more susceptible to damage or breakage, especially in dangerous or harsh environments.</t>
+          <t>Soft robots are more susceptible to damage, which can render them ineffective in rescue situations.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Soft robots may have lower precision or accuracy due to their flexible soft structures and materials.</t>
+          <t>Soft robots may lack the precision of rigid robots, which can lead to mistakes or accidents.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Soft robots may be less reliable or trustworthy due to their soft body and potential for damage or malfunction.</t>
+          <t>Soft robots may be less reliable due to their soft body and potential for damage or malfunction.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rigid robots can facilitate social interactions and connections, especially for isolated or elderly people.</t>
+          <t>Rigid robots can facilitate social integration, especially for isolated or elderly people, by providing companionship and promoting interactions.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>supportive</t>
+          <t>personalized support</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rigid robots can provide emotional support and companionship, helping to reduce feelings of loneliness and shame.</t>
+          <t>Rigid robots can offer personalized support and care, adapting to individual needs and learning difficulties, and providing emotional relationships.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>personalized care</t>
+          <t>increased accessibility</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Rigid robots can be programmed to cater to individual needs, providing personalized care and therapy.</t>
+          <t>Rigid robots can overcome linguistic and cultural barriers, and help people with anxiety disorders or shame, making them more accessible and comfortable to interact with.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>increased interaction</t>
+          <t>practical assistance</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rigid robots can encourage social interactions and conversations, helping people to stay mentally fit and engaged.</t>
+          <t>Rigid robots can assist with daily tasks, take over degrading tasks, and provide everyday help, making life easier for people in need.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>practical assistance</t>
+          <t>emotional comfort</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rigid robots can assist with daily tasks and activities, making life easier for people with disabilities or elderly individuals.</t>
+          <t>Rigid robots can provide emotional comfort, companionship, and a sense of human-like contact, reducing feelings of loneliness and shame.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Soft robots can create a strong emotional bond with users, providing comfort and companionship.</t>
+          <t>Soft robots can create a strong emotional bond with users, especially those with autism or similar disorders, through their natural and human-like interactions.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>natural interactions</t>
+          <t>comforting presence</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Soft robots can mimic human-like movements and reactions, making interactions feel more natural and intuitive.</t>
+          <t>Soft robots can provide a comforting presence, conveying closeness and emotional support, and are particularly beneficial for 'touch starved' persons.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Soft robots can provide a sense of touch and tactility, which can be comforting and reassuring for users.</t>
+          <t>Soft robots can offer haptic benefits, such as tactility and soft materials, making them more pleasant and acceptable to users.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adaptability</t>
+          <t>flexible design</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Soft robots can be designed to adapt to individual needs and situations, making them more effective in providing support and care.</t>
+          <t>Soft robots can be designed to be flexible and adaptable, allowing them to be customized to individual needs and situations.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>friendly appearance</t>
+          <t>alternative companionship</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Soft robots can have a friendly and non-threatening appearance, making users feel more at ease and comfortable.</t>
+          <t>Soft robots can provide an alternative form of companionship, especially for those who cannot have pets or require emotional support.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>lack of human interaction</t>
+          <t>no human contact</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rigid robots may replace human contact, leading to feelings of loneliness and discomfort.</t>
+          <t>Rigid robots may replace human caregivers, leading to a lack of genuine human interaction and emotional support.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>People may become too dependent on rigid robots, losing human interaction and emotional connections.</t>
+          <t>People may become overly dependent on rigid robots, leading to a loss of autonomy and social skills.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rigid robots may not be able to adequately address emotions, leading to a lack of empathy and understanding.</t>
+          <t>Rigid robots may not be able to adequately understand and respond to human emotions, leading to a lack of empathy and compassion.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>impersonal interaction</t>
+          <t>impersonal</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Rigid robots are seen as impersonal, lacking human warmth and closeness, which is essential for emotional well-being.</t>
+          <t>Rigid robots are seen as impersonal and lacking in human warmth, which can lead to feelings of discomfort and fear.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fear and rejection</t>
+          <t>reduction of social contacts</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Some people, especially older adults, may fear or reject rigid robots, leading to a lack of acceptance and trust.</t>
+          <t>The use of rigid robots may lead to a reduction in social contacts and human interactions, potentially exacerbating feelings of loneliness and isolation.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Soft robots may lead to emotional dependence, as people may treat them like real animals or companions.</t>
+          <t>Soft robots may be treated emotionally like real animals, leading to emotional dependence and unhealthy relationships.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dependency risk</t>
+          <t>dependency</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Soft robots may create a risk of dependency, as people may rely too heavily on them for emotional support.</t>
+          <t>Soft robots may create a risk of dependency, particularly for individuals who may rely too heavily on them for emotional support.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Soft robots may enable unhealthy relationships, where people form strong emotional bonds with robots instead of humans.</t>
+          <t>Soft robots may enable unhealthy relationships between humans and robots, leading to a loss of social skills and human connections.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>individuality concerns</t>
+          <t>emotional bond</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Soft robots may not account for individual differences in people's responses to physical closeness and emotional interaction.</t>
+          <t>Soft robots may create strong emotional bonds with humans, leading to negative reactions when the robot breaks down or is no longer available.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fear and confusion</t>
+          <t>individuality of people</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Soft robots may cause fear or confusion, especially among older adults, due to their unfamiliarity and strangeness.</t>
+          <t>Soft robots may not be able to accommodate the individuality of people, leading to inconsistent reactions and responses to emotional interactions.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rigid robots can make more logical decisions without emotional involvement.</t>
+          <t>Rigid robots can make more logical decisions without being guided by emotions and prejudices, leading to more efficient rescue operations.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Rigid robots lack emotions, allowing them to assess situations objectively.</t>
+          <t>Rigid robots can assess situations without emotional involvement, making them more effective in crisis situations.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Rigid robots can provide emotional support without being influenced by emotions.</t>
+          <t>Rigid robots can provide emotional support during panic attacks, tantrums, or other emotional crisis situations, offering a sense of comfort and stability.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>better recognition of emotions</t>
+          <t>trauma patients</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rigid robots can quickly recognize emotions, enabling better emotional support.</t>
+          <t>Rigid robots can help traumatized children open up about their experiences, providing a sense of safety and trust.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>lack of emotionality</t>
+          <t>better recognition of emotions</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Rigid robots can handle traumatic situations without being affected emotionally.</t>
+          <t>Rigid robots can quickly recognize emotions, enabling them to provide better emotional support and respond to triggers more effectively.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Soft robots can appear more human-like, evoking emotions and trust.</t>
+          <t>Soft robots can evoke emotions and provide a sense of comfort due to their lifelike appearance and soft fabrics.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>emotional affection</t>
+          <t>emotional support</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Soft robots can provide emotional comfort, similar to a pet.</t>
+          <t>Soft robots can offer emotional support and companionship, helping people cope with thoughts and feelings.</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Soft robots can appear more empathetic due to their lifelike nature.</t>
+          <t>Soft robots can create a sense of empathy due to their lifelike nature, making people more comfortable around them.</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>enables closeness</t>
+          <t>closer bond</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Soft robots can establish a closer bond with humans, facilitating emotional support.</t>
+          <t>Soft robots can establish a closer connection with people, especially children, due to their animal-like appearance and ability to provide physical affection.</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1986,12 +1986,232 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Soft robots can provide social support, helping to alleviate loneliness.</t>
+          <t>Soft robots can provide social support and a sense of closeness to lonely people, helping to combat feelings of isolation.</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>AP</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lack of empathy</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rigid robots are perceived as lacking empathy and sympathy for the injured, and their artificial empathy is often seen through.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>uncanny valley</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Anthropomorphized rigid robots are often perceived as creepy, and their artificiality can be unsettling in interaction.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>no human closeness</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Rigid robots are seen as unable to provide human warmth and closeness, which can be perceived as cold and unemotional.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>limited cognition</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Rigid robots are limited in their cognitive abilities and lack human judgment, intuition, and emotional support.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>inhuman</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Rigid robots are perceived as inhuman and unable to show empathy or carry out social interactions naturally with victims.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>disappearing boundaries</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Soft robots blur the line between human and machine, which can be unsettling and raise concerns about their emotional intelligence.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>feigning empathy</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Soft robots are perceived as feigning empathy, as their reactions are deceptive and suggest empathy without actually feeling it.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>uncanny valley</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Soft robots can also evoke the uncanny valley effect, where their human-like characteristics can be perceived as creepy or unsettling.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>imitation of nature</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Soft robots' human-like characteristics might not be well received by every person and could cause discomfort or unease.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>intimidating appearance</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Soft robots' appearance can be intimidating or frightening, which can affect their acceptance and use in rescue and assistive roles.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>AN</t>
         </is>
       </c>
     </row>
